--- a/data/trans_dic/P25D_R_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P25D_R_2023-Estudios-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.002074113749958917</v>
+        <v>0.002074113749958916</v>
       </c>
     </row>
     <row r="5">
@@ -581,11 +581,11 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.001547076499445298</v>
+        <v>0.001539590801953621</v>
       </c>
       <c r="D5" s="5" t="inlineStr"/>
       <c r="E5" s="5" t="n">
-        <v>0.0006418717079401573</v>
+        <v>0.0006418542421988424</v>
       </c>
     </row>
     <row r="6">
@@ -596,11 +596,11 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01359793736148338</v>
+        <v>0.01454214577438582</v>
       </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>0.006110936035822671</v>
+        <v>0.007003639544242295</v>
       </c>
     </row>
     <row r="7">
@@ -618,7 +618,7 @@
         <v>0.01271113905704592</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.00816333017693141</v>
+        <v>0.008163330176931409</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.01046622909730396</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.007546728772068473</v>
+        <v>0.007541571076084548</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.004581804079125338</v>
+        <v>0.004709736338414866</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.007238150680012949</v>
+        <v>0.007047267385689345</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02043242936891714</v>
+        <v>0.02007461744592238</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01318579412136283</v>
+        <v>0.01244630479205247</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01520458791091976</v>
+        <v>0.01475670393483365</v>
       </c>
     </row>
     <row r="10">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.01613535843827639</v>
+        <v>0.01613535843827638</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.01124208215393584</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.01364700930928066</v>
+        <v>0.01364700930928067</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.007493506705274341</v>
+        <v>0.008266527515951055</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.006071130422856849</v>
+        <v>0.005470590528549472</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.008123257791558966</v>
+        <v>0.008613246399626259</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02895675003429661</v>
+        <v>0.03157144897794215</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01952550546376733</v>
+        <v>0.02047159902701373</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02165490650633716</v>
+        <v>0.02064780220665797</v>
       </c>
     </row>
     <row r="13">
@@ -728,10 +728,10 @@
         <v>0.01213482465153472</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.006971954904388969</v>
+        <v>0.00697195490438897</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.009478410154621517</v>
+        <v>0.00947841015462152</v>
       </c>
     </row>
     <row r="14">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.007857848615675067</v>
+        <v>0.008608988504661585</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.004724646052792517</v>
+        <v>0.004727575334174056</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.00713653609525545</v>
+        <v>0.007161276972368323</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01788365775284538</v>
+        <v>0.01785542298494706</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01011094857355473</v>
+        <v>0.01070970553284421</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01255293467923841</v>
+        <v>0.01223984703190406</v>
       </c>
     </row>
     <row r="16">
@@ -906,7 +906,7 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="D6" s="6" t="inlineStr"/>
       <c r="E6" s="6" t="n">
@@ -921,11 +921,11 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>7867</v>
+        <v>8413</v>
       </c>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="n">
-        <v>8546</v>
+        <v>9794</v>
       </c>
     </row>
     <row r="8">
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>16776</v>
+        <v>16765</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>9929</v>
+        <v>10206</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>31775</v>
+        <v>30937</v>
       </c>
     </row>
     <row r="11">
@@ -991,13 +991,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>45421</v>
+        <v>44625</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>28574</v>
+        <v>26971</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>66748</v>
+        <v>64782</v>
       </c>
     </row>
     <row r="12">
@@ -1046,13 +1046,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>5317</v>
+        <v>5866</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>4457</v>
+        <v>4016</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>11728</v>
+        <v>12435</v>
       </c>
     </row>
     <row r="15">
@@ -1063,13 +1063,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>20546</v>
+        <v>22402</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>14335</v>
+        <v>15030</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>31264</v>
+        <v>29810</v>
       </c>
     </row>
     <row r="16">
@@ -1118,13 +1118,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>27589</v>
+        <v>30227</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>17581</v>
+        <v>17592</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>51613</v>
+        <v>51792</v>
       </c>
     </row>
     <row r="19">
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>62791</v>
+        <v>62691</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>37624</v>
+        <v>39852</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>90785</v>
+        <v>88521</v>
       </c>
     </row>
     <row r="20">
